--- a/swift-bill-server/dataBase/varis.xlsx
+++ b/swift-bill-server/dataBase/varis.xlsx
@@ -183,6 +183,18 @@
   <si>
     <t>Hello #123,
 PIN: 278122</t>
+  </si>
+  <si>
+    <t>Bakul gupta 123</t>
+  </si>
+  <si>
+    <t>123456789012345</t>
+  </si>
+  <si>
+    <t>Vanshika 123</t>
+  </si>
+  <si>
+    <t>122</t>
   </si>
 </sst>
 </file>
@@ -464,6 +476,40 @@
         <v>55</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>